--- a/biology/Botanique/Bellucia/Bellucia.xlsx
+++ b/biology/Botanique/Bellucia/Bellucia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bellucia est un genre de plantes de la famille des Melastomataceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (01 juin 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (01 juin 2020) :
 Bellucia acutata Pilg.
 Bellucia aequiloba Pilg.
 Bellucia arborescens (Aubl.) Baill.
@@ -580,7 +596,7 @@
 Bellucia riparia Spruce (syn. ambigu : Bellucia grossularioides (L.) Triana)
 Bellucia superba Naud. (syn. : Bellucia grossularioides (L.) Triana)
 Bellucia weberbaueri Cogniaux (syn. : Bellucia pentamera Naud.
-Selon GRIN            (01 juin 2020)[3] :
+Selon GRIN            (01 juin 2020) :
 Bellucia dichotoma Cogn.
 Bellucia grossularioides (L.) Triana
 Bellucia pentamera Naudin
@@ -588,7 +604,7 @@
 Bellucia axinanthera Triana (syn. : Bellucia pentamera Naudin)
 Bellucia costaricensis Cogn. (syn. : Bellucia pentamera Naudin)
 Bellucia imperialis Saldanha &amp; Cogn. (syn. : Bellucia dichotoma Cogn.)
-Selon NCBI  (01 juin 2020)[4] :
+Selon NCBI  (01 juin 2020) :
 Bellucia aequiloba
 Bellucia arborescens
 Bellucia grossularioides
@@ -596,7 +612,7 @@
 Bellucia pentamera
 Bellucia spruceana
 Bellucia subandina
-Selon The Plant List            (01 juin 2020)[5] :
+Selon The Plant List            (01 juin 2020) :
 Bellucia acutata Pilg.
 Bellucia aequiloba Pilg.
 Bellucia beckii S.S. Renner
@@ -622,7 +638,7 @@
 Bellucia nervosa Raf.
 Bellucia pluricaulis Spruce ex Triana
 Bellucia villosa Lozano &amp; L.M. Quinones
-Selon Tropicos                                           (01 juin 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (01 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 Bellucia acquiloba Pilg.
 Bellucia acutata Pilg.
 Bellucia aequiloba Pilg.
